--- a/健身日志.xlsx
+++ b/健身日志.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A899D1D-6019-437F-B920-244F6D53B2DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2249C649-47F4-4877-8237-004D66A53B92}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="58">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,6 +251,14 @@
   </si>
   <si>
     <t>一份鸭血粉丝汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健身卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,13 +443,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -453,31 +458,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -492,6 +479,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -772,11 +782,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -784,668 +794,702 @@
     <col min="1" max="1" width="9.75" customWidth="1"/>
     <col min="5" max="5" width="17.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.875" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="H1" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="25">
+        <v>43606</v>
+      </c>
+      <c r="J1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="20"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="20"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="20"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="5" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="20"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="20"/>
+      <c r="B7" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="20"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="20"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="20"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="20"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="5" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="20"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="20"/>
+      <c r="B13" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="20"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="20"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="20"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="16"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="6" t="s">
+      <c r="A19" s="20"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="16"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="20"/>
+      <c r="B20" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="16"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="16"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="16"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="5" t="s">
+      <c r="A23" s="20"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="16"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="20"/>
+      <c r="B24" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="16"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="16"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="16"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="5" t="s">
+      <c r="A27" s="20"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="16"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="5" t="s">
+      <c r="A28" s="20"/>
+      <c r="B28" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5" t="s">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="16"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18" t="s">
+      <c r="A29" s="21"/>
+      <c r="B29" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18" t="s">
+      <c r="C29" s="11"/>
+      <c r="D29" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="16"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="16"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="10"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="16"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="16"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="5" t="s">
+      <c r="A34" s="20"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="16"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="10"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="2" t="s">
+      <c r="A35" s="20"/>
+      <c r="B35" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="16"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="16"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="10"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="16"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="10"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="16"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="10"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2" t="s">
+      <c r="A39" s="20"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="16"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="10"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="5" t="s">
+      <c r="A40" s="20"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="16"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="10"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="15"/>
-      <c r="B41" s="2" t="s">
+      <c r="A41" s="20"/>
+      <c r="B41" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="16"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="10"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="16"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="10"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="16"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="10"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="16"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="10"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="16"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="10"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2" t="s">
+      <c r="A46" s="20"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="16"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="10"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="15"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="6" t="s">
+      <c r="A47" s="20"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="16"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="10"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="15"/>
-      <c r="B48" s="2" t="s">
+      <c r="A48" s="20"/>
+      <c r="B48" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="16"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="10"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="16"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="10"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="16"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="10"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="5" t="s">
+      <c r="A51" s="20"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="16"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="10"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="2" t="s">
+      <c r="A52" s="20"/>
+      <c r="B52" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="16"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="10"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="16"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="10"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="15"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="16"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="10"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="15"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="5" t="s">
+      <c r="A55" s="20"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="16"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="10"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="5" t="s">
+      <c r="A56" s="20"/>
+      <c r="B56" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5" t="s">
+      <c r="C56" s="4"/>
+      <c r="D56" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="16"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="10"/>
     </row>
     <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="17"/>
-      <c r="B57" s="18" t="s">
+      <c r="A57" s="21"/>
+      <c r="B57" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18" t="s">
+      <c r="C57" s="11"/>
+      <c r="D57" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E57" s="19"/>
-      <c r="F57" s="20"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A29"/>
+    <mergeCell ref="A30:A57"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C5"/>
     <mergeCell ref="D48:D50"/>
     <mergeCell ref="B52:B55"/>
     <mergeCell ref="C52:C54"/>
@@ -1459,30 +1503,6 @@
     <mergeCell ref="C41:C45"/>
     <mergeCell ref="D41:D45"/>
     <mergeCell ref="C46:C47"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A29"/>
-    <mergeCell ref="A30:A57"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D7:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1508,294 +1528,294 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="15">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="21" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="15">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="21" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="15">
         <v>0.91666666666666663</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="15">
         <v>0.35416666666666669</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="21" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="15">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="21" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="15">
         <v>0.91666666666666663</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="15">
         <v>0.31944444444444448</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="21" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="15">
         <v>0.56944444444444442</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="21" t="s">
+      <c r="A10" s="22"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="21" t="s">
+      <c r="A12" s="22"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="21" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="22"/>
+      <c r="B14" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="21" t="s">
+      <c r="A15" s="22"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="21" t="s">
+      <c r="A16" s="22"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="22"/>
+      <c r="B17" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="21" t="s">
+      <c r="A18" s="22"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="21" t="s">
+      <c r="A19" s="22"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="22"/>
+      <c r="B20" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="21" t="s">
+      <c r="A21" s="22"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="21" t="s">
+      <c r="A22" s="22"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/健身日志.xlsx
+++ b/健身日志.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2249C649-47F4-4877-8237-004D66A53B92}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F66E12-7D40-4AE7-B31F-BF0543393C65}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="活动日志" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="66">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -259,6 +259,38 @@
   </si>
   <si>
     <t>开卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21kg 4组 18kg 2组 14kg 2组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5kg 4组 5kg -2.5 kg 4组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4kg 4组 2KG 4组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胸前硬拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40kg 3组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧烤一顿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡丝凉面一份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,6 +511,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -500,8 +534,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -782,11 +814,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -798,10 +830,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="7" t="s">
         <v>28</v>
       </c>
@@ -814,10 +846,10 @@
       <c r="F1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="25">
+      <c r="I1" s="18">
         <v>43606</v>
       </c>
       <c r="J1" t="s">
@@ -825,16 +857,16 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="19" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -845,10 +877,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
@@ -857,10 +889,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
@@ -869,10 +901,10 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
@@ -881,8 +913,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
@@ -897,14 +929,14 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="19" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -915,10 +947,10 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="2" t="s">
         <v>15</v>
       </c>
@@ -927,10 +959,10 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="2" t="s">
         <v>16</v>
       </c>
@@ -939,10 +971,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="2" t="s">
         <v>42</v>
       </c>
@@ -951,9 +983,9 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="20"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -967,9 +999,9 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="4" t="s">
         <v>12</v>
       </c>
@@ -981,14 +1013,14 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
-      <c r="B13" s="17" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="19" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -999,10 +1031,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1011,10 +1043,10 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1023,10 +1055,10 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1035,10 +1067,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="20"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="2" t="s">
         <v>23</v>
       </c>
@@ -1047,462 +1079,494 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17" t="s">
+      <c r="A18" s="22"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="10"/>
+      <c r="E18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="10"/>
+      <c r="E19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="22"/>
+      <c r="B20" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="10"/>
+      <c r="D20" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="10"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="10"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="4" t="s">
+      <c r="A23" s="22"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="22"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>43</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>43</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="20"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="2"/>
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="20"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="A27" s="22"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
       <c r="E27" s="2"/>
       <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-      <c r="B28" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="4"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D28" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="11" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="22"/>
+      <c r="B29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
+      <c r="B30" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11" t="s">
+      <c r="C30" s="11"/>
+      <c r="D30" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="13"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="20" t="s">
+      <c r="E30" s="12"/>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B31" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C31" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D31" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
       <c r="E31" s="2"/>
       <c r="F31" s="10"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="20"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
       <c r="E32" s="2"/>
       <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
       <c r="E33" s="2"/>
       <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="A34" s="22"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
       <c r="E34" s="2"/>
       <c r="F34" s="10"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="20"/>
-      <c r="B35" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>13</v>
+      <c r="A35" s="22"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E36" s="2"/>
       <c r="F36" s="10"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="20"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
       <c r="E37" s="2"/>
       <c r="F37" s="10"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="20"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
       <c r="E38" s="2"/>
       <c r="F38" s="10"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="20"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="A39" s="22"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
       <c r="E39" s="2"/>
       <c r="F39" s="10"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="20"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19" t="s">
+        <v>6</v>
+      </c>
       <c r="D40" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="10"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="20"/>
-      <c r="B41" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>18</v>
+      <c r="A41" s="22"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="10"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="20"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="E42" s="2"/>
       <c r="F42" s="10"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="20"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
       <c r="E43" s="2"/>
       <c r="F43" s="10"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="20"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
       <c r="E44" s="2"/>
       <c r="F44" s="10"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="20"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
       <c r="E45" s="2"/>
       <c r="F45" s="10"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="20"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="A46" s="22"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
       <c r="E46" s="2"/>
       <c r="F46" s="10"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="20"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="5" t="s">
-        <v>12</v>
+      <c r="A47" s="22"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="10"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="20"/>
-      <c r="B48" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>24</v>
+      <c r="A48" s="22"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="10"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="20"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
+      <c r="A49" s="22"/>
+      <c r="B49" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E49" s="2"/>
       <c r="F49" s="10"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="20"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
       <c r="E50" s="2"/>
       <c r="F50" s="10"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="20"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="A51" s="22"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
       <c r="E51" s="2"/>
       <c r="F51" s="10"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="20"/>
-      <c r="B52" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>43</v>
+      <c r="A52" s="22"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="10"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="20"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>43</v>
+      </c>
       <c r="E53" s="2"/>
       <c r="F53" s="10"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="20"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
       <c r="E54" s="2"/>
       <c r="F54" s="10"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="20"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="A55" s="22"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
       <c r="E55" s="2"/>
       <c r="F55" s="10"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="20"/>
-      <c r="B56" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C56" s="4"/>
+      <c r="A56" s="22"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D56" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="21"/>
-      <c r="B57" s="11" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="22"/>
+      <c r="B57" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="10"/>
+    </row>
+    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="23"/>
+      <c r="B58" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11" t="s">
+      <c r="C58" s="11"/>
+      <c r="D58" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E57" s="12"/>
-      <c r="F57" s="13"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="B42:B48"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A30"/>
+    <mergeCell ref="A31:A58"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D25:D27"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D7:D10"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A29"/>
-    <mergeCell ref="A30:A57"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B41:B47"/>
-    <mergeCell ref="C41:C45"/>
-    <mergeCell ref="D41:D45"/>
-    <mergeCell ref="C46:C47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1514,9 +1578,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDA0C1D-7AE1-4D1D-BCA7-6B0906BB8FFB}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1528,14 +1592,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="23"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="6" t="s">
         <v>48</v>
       </c>
@@ -1544,10 +1608,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -1564,8 +1628,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="14" t="s">
         <v>46</v>
       </c>
@@ -1580,8 +1644,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="17"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="14" t="s">
         <v>47</v>
       </c>
@@ -1596,8 +1660,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
@@ -1614,8 +1678,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="14" t="s">
         <v>46</v>
       </c>
@@ -1630,8 +1694,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="14" t="s">
         <v>47</v>
       </c>
@@ -1646,8 +1710,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -1664,8 +1728,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="14" t="s">
         <v>46</v>
       </c>
@@ -1680,40 +1744,58 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="17" t="s">
+      <c r="D10" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="24"/>
+      <c r="B11" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="D11" s="15">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="3">
+        <v>400</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
-      <c r="B12" s="17"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="D12" s="15">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="3">
+        <v>400</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="17"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="14" t="s">
         <v>47</v>
       </c>
@@ -1722,8 +1804,8 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="24"/>
+      <c r="B14" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -1734,8 +1816,8 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="14" t="s">
         <v>46</v>
       </c>
@@ -1744,8 +1826,8 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="14" t="s">
         <v>47</v>
       </c>
@@ -1754,8 +1836,8 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="19" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="14" t="s">
@@ -1766,8 +1848,8 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
-      <c r="B18" s="17"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="14" t="s">
         <v>46</v>
       </c>
@@ -1776,8 +1858,8 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="17"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="14" t="s">
         <v>47</v>
       </c>
@@ -1786,8 +1868,8 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="22"/>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="24"/>
+      <c r="B20" s="19" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="14" t="s">
@@ -1798,8 +1880,8 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
-      <c r="B21" s="17"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="14" t="s">
         <v>46</v>
       </c>
@@ -1808,8 +1890,8 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="22"/>
-      <c r="B22" s="17"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="14" t="s">
         <v>47</v>
       </c>
